--- a/target/classes/TestData.xlsx
+++ b/target/classes/TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="HomePage" sheetId="1" r:id="rId1"/>
@@ -16,40 +16,47 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
   <si>
     <t>Title</t>
   </si>
   <si>
-    <t>Demo WebShop</t>
-  </si>
-  <si>
-    <t>UserNmae</t>
-  </si>
-  <si>
-    <t>passwor</t>
-  </si>
-  <si>
-    <t>title</t>
-  </si>
-  <si>
-    <t>s</t>
-  </si>
-  <si>
-    <t>demoshop.login</t>
+    <t>UserName</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>suryasomaraj94@gmail.com</t>
+  </si>
+  <si>
+    <t>qwerty@123</t>
+  </si>
+  <si>
+    <t>Demo Web Shop</t>
+  </si>
+  <si>
+    <t>Demo Web Shop.Login</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -69,13 +76,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -368,34 +381,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="15.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:1">
       <c r="A2" t="s">
         <v>5</v>
-      </c>
-      <c r="B2">
-        <v>12345</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -405,25 +409,46 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="24.77734375" customWidth="1"/>
+    <col min="2" max="2" width="15.44140625" customWidth="1"/>
+    <col min="3" max="3" width="20.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
-        <v>1</v>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="B2" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/target/classes/TestData.xlsx
+++ b/target/classes/TestData.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="HomePage" sheetId="1" r:id="rId1"/>
     <sheet name="LoginPage" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="RegisterPage" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>Title</t>
   </si>
@@ -36,14 +36,32 @@
     <t>Demo Web Shop</t>
   </si>
   <si>
-    <t>Demo Web Shop.Login</t>
+    <t>Demo Web Shop. Login</t>
+  </si>
+  <si>
+    <t>firstName</t>
+  </si>
+  <si>
+    <t>Arya</t>
+  </si>
+  <si>
+    <t>lastName</t>
+  </si>
+  <si>
+    <t>Lekshmi</t>
+  </si>
+  <si>
+    <t>enterPassword</t>
+  </si>
+  <si>
+    <t>confirmPassword</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -57,6 +75,13 @@
       <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF6A8759"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -83,9 +108,10 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -411,7 +437,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -455,12 +481,53 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="15.44140625" customWidth="1"/>
+    <col min="2" max="2" width="25.109375" customWidth="1"/>
+    <col min="3" max="3" width="15.88671875" customWidth="1"/>
+    <col min="4" max="4" width="16.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2">
+        <v>123456</v>
+      </c>
+      <c r="D2">
+        <v>123456</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="B3" s="2"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>